--- a/VersionRecords/Version 5.3.6 20170328/版本Bug和特性计划及评审表_极光组v5.3.6_极光组.xlsx
+++ b/VersionRecords/Version 5.3.6 20170328/版本Bug和特性计划及评审表_极光组v5.3.6_极光组.xlsx
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.3.2 新特性|Fix Bug'!$A$1:$W$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.3.2 新特性|Fix Bug'!$A$1:$W$18</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="202">
   <si>
     <t>No</t>
   </si>
@@ -242,10 +242,6 @@
     <t>New Features</t>
   </si>
   <si>
-    <t>partner-pc</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -262,23 +258,12 @@
   </si>
   <si>
     <t>低</t>
-  </si>
-  <si>
-    <t>吴永余、邵明基</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV-2773</t>
   </si>
   <si>
     <t>放款给房东和房东买回，使用分布式锁</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>修改查询资方放款状态的接口</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>MGYFZZ-7</t>
   </si>
   <si>
@@ -495,10 +480,6 @@
   </si>
   <si>
     <t>纪维玉</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融账务优化</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -624,6 +605,158 @@
   <si>
     <t>每隔10分钟执行一次</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>资方放款至蘑菇的手续费接口开发</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYH-12</t>
+  </si>
+  <si>
+    <t>JSZWYH-1</t>
+  </si>
+  <si>
+    <t>DV-2523</t>
+  </si>
+  <si>
+    <t>韩美娟、吕崇新、沙周麟</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融账务优化</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC、partnerAPP、PAPP、BS、tasktracker、payapi、renterembed、renterAPP</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC、partnerAPP、BS、tasktracker</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC、partnerAPP、PAPP、BS、tasktracker</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉、王云飞、王峥嵘</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>王峥嵘</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒租客还款消息开发</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、tasktracker</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-402</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资方买回线上化-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资方买回列表查询</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资方买回线上化-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资方买回列表导出</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>资方买回线上化-BS资方买回列表-信审确认</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>资方买回线上化-BS资方买回列表-财务退款</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>资方买回线上化-同步资方买回数据</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1832</t>
+  </si>
+  <si>
+    <t>DV-1833</t>
+  </si>
+  <si>
+    <t>DV-1834</t>
+  </si>
+  <si>
+    <t>DV-1835</t>
+  </si>
+  <si>
+    <t>DV-1871</t>
   </si>
 </sst>
 </file>
@@ -1219,15 +1352,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1285,6 +1412,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1312,20 +1454,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1768,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X167"/>
+  <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1780,7 +1913,7 @@
     <col min="2" max="3" width="9.875" style="39" customWidth="1"/>
     <col min="4" max="4" width="32.375" style="40" customWidth="1"/>
     <col min="5" max="5" width="15" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="44.375" style="39" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="40" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="39" customWidth="1"/>
@@ -1801,7 +1934,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="37" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="37" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1872,682 +2005,929 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="38" customFormat="1" ht="27.75" customHeight="1">
+    <row r="2" spans="1:24" s="38" customFormat="1" ht="36.75" customHeight="1">
       <c r="A2" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>143</v>
+        <v>74</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>179</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="50">
         <v>42810</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="50">
         <v>42810</v>
       </c>
       <c r="K2" s="49"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="49"/>
+      <c r="L2" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>130</v>
+      </c>
       <c r="N2" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="P2" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="50">
-        <v>42810</v>
+        <v>42818</v>
       </c>
       <c r="R2" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="S2" s="90" t="s">
+        <v>174</v>
       </c>
       <c r="T2" s="47"/>
       <c r="U2" s="47"/>
-      <c r="V2" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="64"/>
-      <c r="X2" s="63"/>
+      <c r="V2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="62"/>
+      <c r="X2" s="61"/>
     </row>
     <row r="3" spans="1:24" s="38" customFormat="1" ht="27.75" customHeight="1">
       <c r="A3" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="F3" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="50">
+        <v>42810</v>
+      </c>
       <c r="K3" s="49"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="47"/>
+      <c r="L3" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="90" t="s">
+        <v>173</v>
+      </c>
       <c r="T3" s="47"/>
       <c r="U3" s="47"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="63"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="61"/>
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1" ht="27.75" customHeight="1">
       <c r="A4" s="43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="F4" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="50">
+        <v>42810</v>
+      </c>
       <c r="K4" s="49"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="47"/>
+      <c r="L4" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="90" t="s">
+        <v>175</v>
+      </c>
       <c r="T4" s="47"/>
       <c r="U4" s="47"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="63"/>
-    </row>
-    <row r="5" spans="1:24" s="38" customFormat="1" ht="33">
+      <c r="V4" s="56"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="61"/>
+    </row>
+    <row r="5" spans="1:24" s="38" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="G5" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="50">
+        <v>42810</v>
+      </c>
       <c r="K5" s="49"/>
       <c r="L5" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="53"/>
+      <c r="N5" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q5" s="50">
         <v>42818</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="70" t="s">
-        <v>81</v>
+      <c r="R5" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="91" t="s">
+        <v>191</v>
       </c>
       <c r="T5" s="47"/>
       <c r="U5" s="47"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="63"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="61"/>
     </row>
     <row r="6" spans="1:24" s="38" customFormat="1" ht="33">
       <c r="A6" s="43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="F6" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="50">
+        <v>42810</v>
+      </c>
       <c r="K6" s="49"/>
       <c r="L6" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N6" s="49"/>
+      <c r="N6" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O6" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q6" s="50">
         <v>42818</v>
       </c>
-      <c r="R6" s="53"/>
-      <c r="S6" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="63"/>
-    </row>
-    <row r="7" spans="1:24" s="38" customFormat="1" ht="16.5">
+      <c r="R6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="61"/>
+    </row>
+    <row r="7" spans="1:24" s="38" customFormat="1" ht="33">
       <c r="A7" s="43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="F7" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="50">
+        <v>42810</v>
+      </c>
       <c r="K7" s="49"/>
       <c r="L7" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N7" s="49"/>
+      <c r="N7" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O7" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q7" s="50">
         <v>42818</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="63"/>
+      <c r="R7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="61"/>
     </row>
     <row r="8" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A8" s="43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="F8" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="50">
+        <v>42810</v>
+      </c>
       <c r="K8" s="49"/>
       <c r="L8" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="49"/>
+      <c r="N8" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O8" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q8" s="50">
         <v>42818</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="70" t="s">
-        <v>84</v>
+      <c r="R8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="68" t="s">
+        <v>79</v>
       </c>
       <c r="T8" s="47"/>
       <c r="U8" s="47"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="63"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="61"/>
     </row>
     <row r="9" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A9" s="43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="F9" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="50">
+        <v>42810</v>
+      </c>
       <c r="K9" s="49"/>
       <c r="L9" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" s="49"/>
+      <c r="N9" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O9" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P9" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q9" s="50">
         <v>42818</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="70" t="s">
-        <v>85</v>
+      <c r="R9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="68" t="s">
+        <v>80</v>
       </c>
       <c r="T9" s="47"/>
       <c r="U9" s="47"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="63"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="61"/>
     </row>
     <row r="10" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A10" s="43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
+      <c r="F10" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="50">
+        <v>42810</v>
+      </c>
       <c r="K10" s="49"/>
       <c r="L10" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N10" s="49"/>
+      <c r="N10" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O10" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q10" s="50">
         <v>42818</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="70" t="s">
-        <v>86</v>
+      <c r="R10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" s="68" t="s">
+        <v>81</v>
       </c>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="63"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="61"/>
     </row>
     <row r="11" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A11" s="43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="F11" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="50">
+        <v>42810</v>
+      </c>
       <c r="K11" s="49"/>
       <c r="L11" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M11" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11" s="49"/>
+      <c r="N11" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O11" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P11" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q11" s="50">
         <v>42818</v>
       </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="70" t="s">
-        <v>87</v>
+      <c r="R11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="68" t="s">
+        <v>82</v>
       </c>
       <c r="T11" s="47"/>
       <c r="U11" s="47"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="63"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="61"/>
     </row>
     <row r="12" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A12" s="43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="F12" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="50">
+        <v>42810</v>
+      </c>
       <c r="K12" s="49"/>
       <c r="L12" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M12" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N12" s="49"/>
+      <c r="N12" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O12" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P12" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q12" s="50">
         <v>42818</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="70" t="s">
-        <v>88</v>
+      <c r="R12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="T12" s="47"/>
       <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="63"/>
-    </row>
-    <row r="13" spans="1:24" s="38" customFormat="1" ht="33">
+      <c r="V12" s="56"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="61"/>
+    </row>
+    <row r="13" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A13" s="43">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E13" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
+      <c r="F13" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="50">
+        <v>42810</v>
+      </c>
       <c r="K13" s="49"/>
       <c r="L13" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M13" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N13" s="49"/>
+      <c r="N13" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O13" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q13" s="50">
         <v>42818</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="70" t="s">
-        <v>89</v>
+      <c r="R13" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="47"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="63"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="61"/>
     </row>
     <row r="14" spans="1:24" s="38" customFormat="1" ht="33">
       <c r="A14" s="43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="54"/>
+      <c r="F14" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="50">
+        <v>42810</v>
+      </c>
+      <c r="K14" s="49"/>
       <c r="L14" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M14" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N14" s="49"/>
+      <c r="N14" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O14" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P14" s="56"/>
+        <v>138</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q14" s="50">
         <v>42818</v>
       </c>
-      <c r="R14" s="56"/>
-      <c r="S14" s="70" t="s">
-        <v>90</v>
+      <c r="R14" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="68" t="s">
+        <v>85</v>
       </c>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="47"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="63"/>
-    </row>
-    <row r="15" spans="1:24" ht="16.5">
+      <c r="W14" s="62"/>
+      <c r="X14" s="61"/>
+    </row>
+    <row r="15" spans="1:24" s="38" customFormat="1" ht="33">
       <c r="A15" s="43">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E15" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="55"/>
+      <c r="F15" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="50">
+        <v>42810</v>
+      </c>
+      <c r="K15" s="54"/>
       <c r="L15" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M15" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N15" s="49"/>
+      <c r="N15" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O15" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q15" s="50">
         <v>42818</v>
       </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="70" t="s">
-        <v>91</v>
+      <c r="R15" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="68" t="s">
+        <v>86</v>
       </c>
       <c r="T15" s="47"/>
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
-      <c r="W15" s="48"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="61"/>
     </row>
     <row r="16" spans="1:24" ht="16.5">
       <c r="A16" s="43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E16" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="F16" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="50">
+        <v>42810</v>
+      </c>
       <c r="K16" s="55"/>
       <c r="L16" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="49"/>
+      <c r="N16" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O16" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="47"/>
+        <v>138</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q16" s="50">
         <v>42818</v>
       </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="70" t="s">
-        <v>92</v>
+      <c r="R16" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="68" t="s">
+        <v>87</v>
       </c>
       <c r="T16" s="47"/>
       <c r="U16" s="47"/>
@@ -2556,859 +2936,1345 @@
     </row>
     <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="43">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E17" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="F17" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="50">
+        <v>42810</v>
+      </c>
       <c r="K17" s="55"/>
       <c r="L17" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" s="49"/>
+      <c r="N17" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O17" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" s="57"/>
+        <v>138</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q17" s="50">
         <v>42818</v>
       </c>
-      <c r="R17" s="53"/>
-      <c r="S17" s="70" t="s">
-        <v>93</v>
+      <c r="R17" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="68" t="s">
+        <v>88</v>
       </c>
       <c r="T17" s="47"/>
       <c r="U17" s="47"/>
       <c r="V17" s="47"/>
       <c r="W17" s="48"/>
     </row>
-    <row r="18" spans="1:23" ht="33">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="43">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E18" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="49"/>
+      <c r="F18" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="50">
+        <v>42810</v>
+      </c>
+      <c r="K18" s="55"/>
       <c r="L18" s="53" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N18" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N18" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O18" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P18" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q18" s="50">
         <v>42818</v>
       </c>
-      <c r="R18" s="53"/>
-      <c r="S18" s="70" t="s">
-        <v>94</v>
+      <c r="R18" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="68" t="s">
+        <v>89</v>
       </c>
       <c r="T18" s="47"/>
       <c r="U18" s="47"/>
       <c r="V18" s="47"/>
-      <c r="W18" s="64"/>
+      <c r="W18" s="48"/>
     </row>
     <row r="19" spans="1:23" ht="33">
       <c r="A19" s="43">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
+      <c r="F19" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="50">
+        <v>42810</v>
+      </c>
       <c r="K19" s="49"/>
       <c r="L19" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O19" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q19" s="50">
         <v>42818</v>
       </c>
-      <c r="R19" s="53"/>
-      <c r="S19" s="70" t="s">
-        <v>95</v>
+      <c r="R19" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" s="68" t="s">
+        <v>90</v>
       </c>
       <c r="T19" s="47"/>
       <c r="U19" s="47"/>
       <c r="V19" s="47"/>
-      <c r="W19" s="64"/>
+      <c r="W19" s="62"/>
     </row>
     <row r="20" spans="1:23" ht="33">
       <c r="A20" s="43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
+      <c r="F20" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="50">
+        <v>42810</v>
+      </c>
       <c r="K20" s="49"/>
       <c r="L20" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M20" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O20" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P20" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P20" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q20" s="50">
         <v>42818</v>
       </c>
-      <c r="R20" s="53"/>
-      <c r="S20" s="70" t="s">
-        <v>96</v>
+      <c r="R20" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="68" t="s">
+        <v>91</v>
       </c>
       <c r="T20" s="47"/>
       <c r="U20" s="47"/>
       <c r="V20" s="47"/>
-      <c r="W20" s="64"/>
+      <c r="W20" s="62"/>
     </row>
     <row r="21" spans="1:23" ht="33">
       <c r="A21" s="43">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="F21" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="50">
+        <v>42810</v>
+      </c>
       <c r="K21" s="49"/>
       <c r="L21" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M21" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N21" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O21" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q21" s="50">
         <v>42818</v>
       </c>
-      <c r="R21" s="53"/>
-      <c r="S21" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="66"/>
+      <c r="R21" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="62"/>
     </row>
     <row r="22" spans="1:23" ht="33">
       <c r="A22" s="43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+      <c r="F22" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="50">
+        <v>42810</v>
+      </c>
       <c r="K22" s="49"/>
       <c r="L22" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N22" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O22" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q22" s="50">
         <v>42818</v>
       </c>
-      <c r="R22" s="53"/>
-      <c r="S22" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="66"/>
+      <c r="R22" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="64"/>
     </row>
     <row r="23" spans="1:23" ht="33">
       <c r="A23" s="43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
+      <c r="F23" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="50">
+        <v>42810</v>
+      </c>
       <c r="K23" s="49"/>
       <c r="L23" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N23" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O23" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P23" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q23" s="50">
         <v>42818</v>
       </c>
-      <c r="R23" s="53"/>
-      <c r="S23" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="66"/>
+      <c r="R23" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="64"/>
     </row>
     <row r="24" spans="1:23" ht="33">
       <c r="A24" s="43">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
+      <c r="F24" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="50">
+        <v>42810</v>
+      </c>
       <c r="K24" s="49"/>
       <c r="L24" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O24" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P24" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P24" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q24" s="50">
         <v>42818</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="66"/>
+      <c r="R24" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S24" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="64"/>
     </row>
     <row r="25" spans="1:23" ht="33">
       <c r="A25" s="43">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
+      <c r="F25" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="50">
+        <v>42810</v>
+      </c>
       <c r="K25" s="49"/>
       <c r="L25" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M25" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N25" s="49"/>
+        <v>130</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="O25" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P25" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="P25" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q25" s="50">
         <v>42818</v>
       </c>
-      <c r="R25" s="53"/>
-      <c r="S25" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="66"/>
-    </row>
-    <row r="26" spans="1:23" ht="16.5">
+      <c r="R25" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S25" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="64"/>
+    </row>
+    <row r="26" spans="1:23" ht="33">
       <c r="A26" s="43">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E26" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
+      <c r="F26" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="50">
+        <v>42810</v>
+      </c>
       <c r="K26" s="49"/>
       <c r="L26" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M26" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q26" s="50">
         <v>42818</v>
       </c>
-      <c r="R26" s="53"/>
-      <c r="S26" s="70" t="s">
-        <v>135</v>
+      <c r="R26" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S26" s="68" t="s">
+        <v>97</v>
       </c>
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="53"/>
+      <c r="W26" s="64"/>
     </row>
     <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="43">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
+      <c r="F27" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="50">
+        <v>42810</v>
+      </c>
       <c r="K27" s="49"/>
       <c r="L27" s="53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M27" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N27" s="49"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N27" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q27" s="50">
         <v>42818</v>
       </c>
-      <c r="R27" s="53"/>
-      <c r="S27" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="64"/>
+      <c r="R27" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S27" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="53"/>
     </row>
     <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="43">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
+      <c r="F28" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="50">
+        <v>42810</v>
+      </c>
       <c r="K28" s="49"/>
       <c r="L28" s="53" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N28" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q28" s="50">
         <v>42818</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="70" t="s">
-        <v>137</v>
+      <c r="R28" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" s="68" t="s">
+        <v>132</v>
       </c>
       <c r="T28" s="47"/>
       <c r="U28" s="47"/>
       <c r="V28" s="47"/>
-      <c r="W28" s="64"/>
+      <c r="W28" s="62"/>
     </row>
     <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="43">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E29" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="50"/>
+      <c r="F29" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="50">
+        <v>42810</v>
+      </c>
       <c r="K29" s="49"/>
       <c r="L29" s="53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M29" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N29" s="49"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N29" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q29" s="50">
         <v>42818</v>
       </c>
-      <c r="R29" s="53"/>
-      <c r="S29" s="70" t="s">
-        <v>138</v>
+      <c r="R29" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S29" s="68" t="s">
+        <v>133</v>
       </c>
       <c r="T29" s="47"/>
       <c r="U29" s="47"/>
       <c r="V29" s="47"/>
-      <c r="W29" s="64"/>
+      <c r="W29" s="62"/>
     </row>
     <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="43">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E30" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="F30" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="50">
+        <v>42810</v>
+      </c>
+      <c r="K30" s="49"/>
       <c r="L30" s="53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N30" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q30" s="50">
         <v>42818</v>
       </c>
-      <c r="R30" s="53"/>
-      <c r="S30" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="66"/>
+      <c r="R30" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S30" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="62"/>
     </row>
     <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="43">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E31" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="49"/>
+      <c r="F31" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="50">
+        <v>42810</v>
+      </c>
+      <c r="K31" s="51"/>
       <c r="L31" s="53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M31" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N31" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q31" s="50">
         <v>42818</v>
       </c>
-      <c r="R31" s="53"/>
-      <c r="S31" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="62"/>
+      <c r="R31" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S31" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="64"/>
     </row>
     <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="43">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E32" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
+      <c r="F32" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="50">
+        <v>42810</v>
+      </c>
       <c r="K32" s="49"/>
       <c r="L32" s="53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M32" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="N32" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O32" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="Q32" s="50">
         <v>42818</v>
       </c>
-      <c r="R32" s="53"/>
-      <c r="S32" s="70" t="s">
-        <v>141</v>
+      <c r="R32" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S32" s="68" t="s">
+        <v>136</v>
       </c>
       <c r="T32" s="47"/>
       <c r="U32" s="47"/>
       <c r="V32" s="47"/>
-      <c r="W32" s="64"/>
+      <c r="W32" s="60"/>
     </row>
     <row r="33" spans="1:23" ht="16.5">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="50"/>
+      <c r="A33" s="43">
+        <v>32</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="50">
+        <v>42810</v>
+      </c>
       <c r="K33" s="49"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="47"/>
+      <c r="L33" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O33" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P33" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R33" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S33" s="68" t="s">
+        <v>137</v>
+      </c>
       <c r="T33" s="47"/>
       <c r="U33" s="47"/>
       <c r="V33" s="47"/>
-      <c r="W33" s="64"/>
+      <c r="W33" s="62"/>
     </row>
     <row r="34" spans="1:23" ht="16.5">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="A34" s="43">
+        <v>33</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="50">
+        <v>42810</v>
+      </c>
       <c r="K34" s="49"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="47"/>
+      <c r="L34" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="P34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R34" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="91" t="s">
+        <v>197</v>
+      </c>
       <c r="T34" s="47"/>
       <c r="U34" s="47"/>
       <c r="V34" s="47"/>
-      <c r="W34" s="64"/>
+      <c r="W34" s="62"/>
     </row>
     <row r="35" spans="1:23" ht="16.5">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="A35" s="43">
+        <v>34</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I35" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="50">
+        <v>42810</v>
+      </c>
       <c r="K35" s="49"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="47"/>
+      <c r="L35" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O35" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="P35" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R35" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" s="90" t="s">
+        <v>198</v>
+      </c>
       <c r="T35" s="47"/>
       <c r="U35" s="47"/>
       <c r="V35" s="47"/>
-      <c r="W35" s="64"/>
+      <c r="W35" s="62"/>
     </row>
     <row r="36" spans="1:23" ht="16.5">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
+      <c r="A36" s="43">
+        <v>35</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="50">
+        <v>42810</v>
+      </c>
       <c r="K36" s="49"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="47"/>
+      <c r="L36" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P36" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R36" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="91" t="s">
+        <v>199</v>
+      </c>
       <c r="T36" s="47"/>
       <c r="U36" s="47"/>
       <c r="V36" s="47"/>
-      <c r="W36" s="64"/>
+      <c r="W36" s="62"/>
     </row>
     <row r="37" spans="1:23" ht="16.5">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="50"/>
+      <c r="A37" s="43">
+        <v>36</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="50">
+        <v>42810</v>
+      </c>
       <c r="K37" s="49"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="47"/>
+      <c r="L37" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P37" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R37" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S37" s="91" t="s">
+        <v>200</v>
+      </c>
       <c r="T37" s="47"/>
       <c r="U37" s="47"/>
       <c r="V37" s="47"/>
-      <c r="W37" s="64"/>
+      <c r="W37" s="62"/>
     </row>
     <row r="38" spans="1:23" ht="16.5">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="50"/>
+      <c r="A38" s="43">
+        <v>37</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="50">
+        <v>42810</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="50">
+        <v>42810</v>
+      </c>
       <c r="K38" s="49"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="47"/>
+      <c r="L38" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="M38" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O38" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="50">
+        <v>42818</v>
+      </c>
+      <c r="R38" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="S38" s="91" t="s">
+        <v>201</v>
+      </c>
       <c r="T38" s="47"/>
       <c r="U38" s="47"/>
       <c r="V38" s="47"/>
-      <c r="W38" s="64"/>
+      <c r="W38" s="62"/>
     </row>
     <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="43"/>
@@ -3433,7 +4299,7 @@
       <c r="T39" s="47"/>
       <c r="U39" s="47"/>
       <c r="V39" s="47"/>
-      <c r="W39" s="64"/>
+      <c r="W39" s="62"/>
     </row>
     <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="43"/>
@@ -3458,7 +4324,7 @@
       <c r="T40" s="47"/>
       <c r="U40" s="47"/>
       <c r="V40" s="47"/>
-      <c r="W40" s="64"/>
+      <c r="W40" s="62"/>
     </row>
     <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="43"/>
@@ -3483,32 +4349,32 @@
       <c r="T41" s="47"/>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
-      <c r="W41" s="64"/>
+      <c r="W41" s="62"/>
     </row>
     <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
-      <c r="D42" s="45"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
       <c r="G42" s="49"/>
       <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
+      <c r="I42" s="49"/>
       <c r="J42" s="50"/>
       <c r="K42" s="49"/>
       <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
+      <c r="M42" s="49"/>
       <c r="N42" s="49"/>
       <c r="O42" s="49"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="50"/>
       <c r="R42" s="53"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="64"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="62"/>
     </row>
     <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="43"/>
@@ -3529,24 +4395,24 @@
       <c r="P43" s="53"/>
       <c r="Q43" s="50"/>
       <c r="R43" s="53"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="64"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="62"/>
     </row>
     <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
       <c r="G44" s="49"/>
       <c r="H44" s="50"/>
       <c r="I44" s="50"/>
       <c r="J44" s="50"/>
-      <c r="K44" s="55"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="53"/>
       <c r="M44" s="53"/>
       <c r="N44" s="49"/>
@@ -3554,11 +4420,11 @@
       <c r="P44" s="53"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="53"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="48"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="62"/>
     </row>
     <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="43"/>
@@ -3711,24 +4577,24 @@
       <c r="W50" s="48"/>
     </row>
     <row r="51" spans="1:23" ht="16.5">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="47"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="52"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
       <c r="K51" s="55"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
       <c r="N51" s="49"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="48"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="53"/>
       <c r="S51" s="47"/>
       <c r="T51" s="47"/>
       <c r="U51" s="47"/>
@@ -4117,7 +4983,7 @@
       <c r="D67" s="48"/>
       <c r="E67" s="47"/>
       <c r="F67" s="49"/>
-      <c r="G67" s="47"/>
+      <c r="G67" s="49"/>
       <c r="H67" s="52"/>
       <c r="I67" s="47"/>
       <c r="J67" s="52"/>
@@ -4266,7 +5132,7 @@
       <c r="C73" s="47"/>
       <c r="D73" s="48"/>
       <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="47"/>
       <c r="H73" s="52"/>
       <c r="I73" s="47"/>
@@ -4360,7 +5226,7 @@
       <c r="V76" s="47"/>
       <c r="W76" s="48"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="47"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
@@ -4374,7 +5240,7 @@
       <c r="K77" s="55"/>
       <c r="L77" s="47"/>
       <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
+      <c r="N77" s="49"/>
       <c r="O77" s="47"/>
       <c r="P77" s="47"/>
       <c r="Q77" s="52"/>
@@ -5779,6 +6645,10 @@
       <c r="P133" s="47"/>
       <c r="Q133" s="52"/>
       <c r="R133" s="48"/>
+      <c r="S133" s="47"/>
+      <c r="T133" s="47"/>
+      <c r="U133" s="47"/>
+      <c r="V133" s="47"/>
       <c r="W133" s="48"/>
     </row>
     <row r="134" spans="1:23">
@@ -6495,13 +7365,34 @@
       <c r="R167" s="48"/>
       <c r="W167" s="48"/>
     </row>
+    <row r="168" spans="1:23">
+      <c r="A168" s="47"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="52"/>
+      <c r="I168" s="47"/>
+      <c r="J168" s="52"/>
+      <c r="K168" s="55"/>
+      <c r="L168" s="47"/>
+      <c r="M168" s="47"/>
+      <c r="N168" s="47"/>
+      <c r="O168" s="47"/>
+      <c r="P168" s="47"/>
+      <c r="Q168" s="52"/>
+      <c r="R168" s="48"/>
+      <c r="W168" s="48"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N77">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -6524,38 +7415,46 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S5" r:id="rId2" display="http://192.168.60.204/browse/MGYFZZ-7"/>
-    <hyperlink ref="S6" r:id="rId3" display="http://192.168.60.204/browse/MGYFZZ-8"/>
-    <hyperlink ref="S7" r:id="rId4" display="http://192.168.60.204/browse/MGYFZZ-9"/>
-    <hyperlink ref="S8" r:id="rId5" display="http://192.168.60.204/browse/MGYFZZ-10"/>
-    <hyperlink ref="S9" r:id="rId6" display="http://192.168.60.204/browse/MGYFZZ-11"/>
-    <hyperlink ref="S10" r:id="rId7" display="http://192.168.60.204/browse/MGYFZZ-12"/>
-    <hyperlink ref="S11" r:id="rId8" display="http://192.168.60.204/browse/MGYFZZ-13"/>
-    <hyperlink ref="S12" r:id="rId9" display="http://192.168.60.204/browse/MGYFZZ-14"/>
-    <hyperlink ref="S13" r:id="rId10" display="http://192.168.60.204/browse/MGYFZZ-15"/>
-    <hyperlink ref="S14" r:id="rId11" display="http://192.168.60.204/browse/MGYFZZ-16"/>
-    <hyperlink ref="S15" r:id="rId12" display="http://192.168.60.204/browse/MGYFZZ-17"/>
-    <hyperlink ref="S16" r:id="rId13" display="http://192.168.60.204/browse/MGYFZZ-18"/>
-    <hyperlink ref="S17" r:id="rId14" display="http://192.168.60.204/browse/MGYFZZ-19"/>
-    <hyperlink ref="S18" r:id="rId15" display="http://192.168.60.204/browse/MGYFZZ-92"/>
-    <hyperlink ref="S19" r:id="rId16" display="http://192.168.60.204/browse/MGYFZZ-91"/>
-    <hyperlink ref="S20" r:id="rId17" display="http://192.168.60.204/browse/MGYFZZ-90"/>
-    <hyperlink ref="S21" r:id="rId18" display="http://192.168.60.204/browse/MGYFZZ-89"/>
-    <hyperlink ref="S22" r:id="rId19" display="http://192.168.60.204/browse/MGYFZZ-88"/>
-    <hyperlink ref="S23" r:id="rId20" display="http://192.168.60.204/browse/MGYFZZ-87"/>
-    <hyperlink ref="S24" r:id="rId21" display="http://192.168.60.204/browse/MGYFZZ-86"/>
-    <hyperlink ref="S25" r:id="rId22" display="http://192.168.60.204/browse/MGYFZZ-85"/>
-    <hyperlink ref="S26" r:id="rId23" display="http://192.168.60.204/browse/JRSY-9"/>
-    <hyperlink ref="S27" r:id="rId24" display="http://192.168.60.204/browse/JRSY-8"/>
-    <hyperlink ref="S28" r:id="rId25" display="http://192.168.60.204/browse/JRSY-7"/>
-    <hyperlink ref="S29" r:id="rId26" display="http://192.168.60.204/browse/JRSY-6"/>
-    <hyperlink ref="S30" r:id="rId27" display="http://192.168.60.204/browse/JRSY-5"/>
-    <hyperlink ref="S31" r:id="rId28" display="http://192.168.60.204/browse/JRSY-4"/>
-    <hyperlink ref="S32" r:id="rId29" display="http://192.168.60.204/browse/JRSY-3"/>
+    <hyperlink ref="S6" r:id="rId1" display="http://192.168.60.204/browse/MGYFZZ-7"/>
+    <hyperlink ref="S7" r:id="rId2" display="http://192.168.60.204/browse/MGYFZZ-8"/>
+    <hyperlink ref="S8" r:id="rId3" display="http://192.168.60.204/browse/MGYFZZ-9"/>
+    <hyperlink ref="S9" r:id="rId4" display="http://192.168.60.204/browse/MGYFZZ-10"/>
+    <hyperlink ref="S10" r:id="rId5" display="http://192.168.60.204/browse/MGYFZZ-11"/>
+    <hyperlink ref="S11" r:id="rId6" display="http://192.168.60.204/browse/MGYFZZ-12"/>
+    <hyperlink ref="S12" r:id="rId7" display="http://192.168.60.204/browse/MGYFZZ-13"/>
+    <hyperlink ref="S13" r:id="rId8" display="http://192.168.60.204/browse/MGYFZZ-14"/>
+    <hyperlink ref="S14" r:id="rId9" display="http://192.168.60.204/browse/MGYFZZ-15"/>
+    <hyperlink ref="S15" r:id="rId10" display="http://192.168.60.204/browse/MGYFZZ-16"/>
+    <hyperlink ref="S16" r:id="rId11" display="http://192.168.60.204/browse/MGYFZZ-17"/>
+    <hyperlink ref="S17" r:id="rId12" display="http://192.168.60.204/browse/MGYFZZ-18"/>
+    <hyperlink ref="S18" r:id="rId13" display="http://192.168.60.204/browse/MGYFZZ-19"/>
+    <hyperlink ref="S19" r:id="rId14" display="http://192.168.60.204/browse/MGYFZZ-92"/>
+    <hyperlink ref="S20" r:id="rId15" display="http://192.168.60.204/browse/MGYFZZ-91"/>
+    <hyperlink ref="S21" r:id="rId16" display="http://192.168.60.204/browse/MGYFZZ-90"/>
+    <hyperlink ref="S22" r:id="rId17" display="http://192.168.60.204/browse/MGYFZZ-89"/>
+    <hyperlink ref="S23" r:id="rId18" display="http://192.168.60.204/browse/MGYFZZ-88"/>
+    <hyperlink ref="S24" r:id="rId19" display="http://192.168.60.204/browse/MGYFZZ-87"/>
+    <hyperlink ref="S25" r:id="rId20" display="http://192.168.60.204/browse/MGYFZZ-86"/>
+    <hyperlink ref="S26" r:id="rId21" display="http://192.168.60.204/browse/MGYFZZ-85"/>
+    <hyperlink ref="S27" r:id="rId22" display="http://192.168.60.204/browse/JRSY-9"/>
+    <hyperlink ref="S28" r:id="rId23" display="http://192.168.60.204/browse/JRSY-8"/>
+    <hyperlink ref="S29" r:id="rId24" display="http://192.168.60.204/browse/JRSY-7"/>
+    <hyperlink ref="S30" r:id="rId25" display="http://192.168.60.204/browse/JRSY-6"/>
+    <hyperlink ref="S31" r:id="rId26" display="http://192.168.60.204/browse/JRSY-5"/>
+    <hyperlink ref="S32" r:id="rId27" display="http://192.168.60.204/browse/JRSY-4"/>
+    <hyperlink ref="S33" r:id="rId28" display="http://192.168.60.204/browse/JRSY-3"/>
+    <hyperlink ref="S3" r:id="rId29" display="http://192.168.60.204/browse/JRYH-12"/>
+    <hyperlink ref="S2" r:id="rId30" display="http://192.168.60.204/browse/JSZWYH-1"/>
+    <hyperlink ref="S4" r:id="rId31" display="http://192.168.60.204/browse/DV-2523"/>
+    <hyperlink ref="S5" r:id="rId32" display="http://192.168.60.204/browse/JRYF-402"/>
+    <hyperlink ref="S34" r:id="rId33" display="http://192.168.60.204/browse/DV-1832"/>
+    <hyperlink ref="S35" r:id="rId34" display="http://192.168.60.204/browse/DV-1833"/>
+    <hyperlink ref="S36" r:id="rId35" display="http://192.168.60.204/browse/DV-1834"/>
+    <hyperlink ref="S37" r:id="rId36" display="http://192.168.60.204/browse/DV-1835"/>
+    <hyperlink ref="S38" r:id="rId37" display="http://192.168.60.204/browse/DV-1871"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -6644,139 +7543,139 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="71" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="1:18" s="69" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="I2" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="90" t="s">
+      <c r="K2" s="70"/>
+      <c r="L2" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="N2" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="O2" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+    </row>
+    <row r="3" spans="1:18" s="69" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="91" t="s">
+      <c r="F3" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="M2" s="73" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="M3" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="N3" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-    </row>
-    <row r="3" spans="1:18" s="71" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72" t="s">
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+    </row>
+    <row r="4" spans="1:18" s="78" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="72" t="s">
+      <c r="I4" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-    </row>
-    <row r="4" spans="1:18" s="89" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="91" t="s">
+      <c r="O4" s="80" t="s">
         <v>171</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="O4" s="91" t="s">
-        <v>176</v>
       </c>
       <c r="P4" s="36"/>
       <c r="Q4" s="35"/>
@@ -6809,19 +7708,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6859,8 +7758,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6872,8 +7771,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6885,8 +7784,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6898,8 +7797,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6911,8 +7810,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6924,8 +7823,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6937,8 +7836,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6950,8 +7849,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7012,36 +7911,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7084,44 +7983,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="77" customFormat="1" ht="99">
-      <c r="A4" s="75">
+    <row r="4" spans="1:13" s="75" customFormat="1" ht="99">
+      <c r="A4" s="73">
         <v>1</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="75" t="s">
+      <c r="I4" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="K4" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
@@ -7353,36 +8252,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7667,36 +8566,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7739,44 +8638,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="77" customFormat="1" ht="99">
-      <c r="A4" s="75">
+    <row r="4" spans="1:13" s="75" customFormat="1" ht="99">
+      <c r="A4" s="73">
         <v>1</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="I4" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="J4" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="K4" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="73"/>
     </row>
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
@@ -8010,36 +8909,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
